--- a/data/advance report template 2024.xlsx
+++ b/data/advance report template 2024.xlsx
@@ -298,9 +298,9 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -575,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="185">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -661,8 +661,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="15" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -676,6 +677,7 @@
     <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -735,6 +737,9 @@
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -751,13 +756,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -771,17 +779,20 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -823,11 +834,17 @@
     <xf borderId="12" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="12" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="13" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="24" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -838,6 +855,9 @@
     <xf borderId="15" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="15" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="24" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +866,9 @@
     </xf>
     <xf borderId="12" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -883,11 +906,17 @@
     <xf borderId="8" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="8" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="19" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -898,6 +927,9 @@
     <xf borderId="8" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="8" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="19" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -906,6 +938,9 @@
     </xf>
     <xf borderId="8" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -937,17 +972,23 @@
     <xf borderId="15" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="15" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="24" fillId="2" fontId="7" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="24" fillId="2" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -967,6 +1008,9 @@
     <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="18" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="15" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -977,11 +1021,17 @@
     <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="14" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2229,9 +2279,9 @@
       <c r="BB14" s="42"/>
       <c r="BC14" s="43"/>
       <c r="BD14" s="43"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
       <c r="BH14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2439,19 +2489,19 @@
       <c r="AY17" s="10"/>
       <c r="AZ17" s="10"/>
       <c r="BA17" s="10"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="47" t="s">
+      <c r="BB17" s="44"/>
+      <c r="BC17" s="45"/>
+      <c r="BD17" s="45"/>
+      <c r="BE17" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="46"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="46"/>
-      <c r="BK17" s="46"/>
-      <c r="BL17" s="48"/>
+      <c r="BF17" s="45"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="45"/>
+      <c r="BI17" s="45"/>
+      <c r="BJ17" s="45"/>
+      <c r="BK17" s="45"/>
+      <c r="BL17" s="47"/>
       <c r="BM17" s="2"/>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
@@ -2540,7 +2590,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="48" t="s">
         <v>26</v>
       </c>
       <c r="AQ19" s="1"/>
@@ -2646,45 +2696,45 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
       <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="49"/>
       <c r="AG21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="49"/>
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
       <c r="AQ21" s="52"/>
       <c r="AR21" s="52"/>
       <c r="AS21" s="52"/>
@@ -2861,7 +2911,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="48" t="s">
         <v>30</v>
       </c>
       <c r="AW24" s="53"/>
@@ -2894,45 +2944,45 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
       <c r="AW25" s="53"/>
       <c r="AX25" s="53"/>
       <c r="AY25" s="53"/>
@@ -3105,7 +3155,7 @@
       <c r="G28" s="53"/>
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="48" t="s">
         <v>33</v>
       </c>
       <c r="AW28" s="53"/>
@@ -3138,45 +3188,45 @@
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
       <c r="AW29" s="53"/>
       <c r="AX29" s="53"/>
       <c r="AY29" s="53"/>
@@ -3515,47 +3565,47 @@
       <c r="Y34" s="72"/>
       <c r="Z34" s="72"/>
       <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
+      <c r="AB34" s="73"/>
       <c r="AC34" s="72"/>
       <c r="AD34" s="72"/>
-      <c r="AE34" s="73"/>
+      <c r="AE34" s="74"/>
       <c r="AF34" s="65"/>
       <c r="AG34" s="69"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="74" t="s">
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AN34" s="74"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="74"/>
-      <c r="AR34" s="74"/>
-      <c r="AS34" s="74"/>
-      <c r="AT34" s="74"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="74"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="75"/>
+      <c r="AP34" s="75"/>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="75"/>
+      <c r="AS34" s="75"/>
+      <c r="AT34" s="75"/>
+      <c r="AU34" s="75"/>
+      <c r="AV34" s="75"/>
       <c r="AW34" s="69"/>
-      <c r="AX34" s="74"/>
-      <c r="AY34" s="74"/>
-      <c r="AZ34" s="74"/>
-      <c r="BA34" s="74"/>
-      <c r="BB34" s="74"/>
-      <c r="BC34" s="74" t="s">
+      <c r="AX34" s="75"/>
+      <c r="AY34" s="75"/>
+      <c r="AZ34" s="75"/>
+      <c r="BA34" s="75"/>
+      <c r="BB34" s="75"/>
+      <c r="BC34" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="BD34" s="74"/>
-      <c r="BE34" s="74"/>
-      <c r="BF34" s="74"/>
-      <c r="BG34" s="74"/>
-      <c r="BH34" s="74"/>
-      <c r="BI34" s="74"/>
-      <c r="BJ34" s="74"/>
-      <c r="BK34" s="74"/>
-      <c r="BL34" s="75"/>
+      <c r="BD34" s="75"/>
+      <c r="BE34" s="75"/>
+      <c r="BF34" s="75"/>
+      <c r="BG34" s="75"/>
+      <c r="BH34" s="75"/>
+      <c r="BI34" s="75"/>
+      <c r="BJ34" s="75"/>
+      <c r="BK34" s="75"/>
+      <c r="BL34" s="76"/>
       <c r="BM34" s="65"/>
       <c r="BN34" s="65"/>
       <c r="BO34" s="65"/>
@@ -3585,56 +3635,56 @@
       <c r="T35" s="65"/>
       <c r="U35" s="65"/>
       <c r="V35" s="65"/>
-      <c r="W35" s="76"/>
+      <c r="W35" s="77"/>
       <c r="X35" s="66"/>
       <c r="Y35" s="72"/>
       <c r="Z35" s="72"/>
       <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
+      <c r="AB35" s="73"/>
       <c r="AC35" s="72"/>
       <c r="AD35" s="72"/>
-      <c r="AE35" s="73"/>
+      <c r="AE35" s="74"/>
       <c r="AF35" s="65"/>
-      <c r="AG35" s="77" t="s">
+      <c r="AG35" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="74"/>
-      <c r="AM35" s="74"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="77" t="s">
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="AP35" s="74"/>
-      <c r="AQ35" s="74"/>
-      <c r="AR35" s="74"/>
-      <c r="AS35" s="74"/>
-      <c r="AT35" s="74"/>
-      <c r="AU35" s="74"/>
-      <c r="AV35" s="75"/>
-      <c r="AW35" s="77" t="s">
+      <c r="AP35" s="75"/>
+      <c r="AQ35" s="75"/>
+      <c r="AR35" s="75"/>
+      <c r="AS35" s="75"/>
+      <c r="AT35" s="75"/>
+      <c r="AU35" s="75"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="AX35" s="74"/>
-      <c r="AY35" s="74"/>
-      <c r="AZ35" s="74"/>
-      <c r="BA35" s="74"/>
-      <c r="BB35" s="74"/>
-      <c r="BC35" s="74"/>
-      <c r="BD35" s="75"/>
-      <c r="BE35" s="77" t="s">
+      <c r="AX35" s="75"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="75"/>
+      <c r="BA35" s="75"/>
+      <c r="BB35" s="75"/>
+      <c r="BC35" s="75"/>
+      <c r="BD35" s="76"/>
+      <c r="BE35" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="BF35" s="74"/>
-      <c r="BG35" s="74"/>
-      <c r="BH35" s="74"/>
-      <c r="BI35" s="74"/>
-      <c r="BJ35" s="74"/>
-      <c r="BK35" s="74"/>
-      <c r="BL35" s="75"/>
+      <c r="BF35" s="75"/>
+      <c r="BG35" s="75"/>
+      <c r="BH35" s="75"/>
+      <c r="BI35" s="75"/>
+      <c r="BJ35" s="75"/>
+      <c r="BK35" s="75"/>
+      <c r="BL35" s="76"/>
       <c r="BM35" s="65"/>
       <c r="BN35" s="65"/>
       <c r="BO35" s="65"/>
@@ -3664,24 +3714,24 @@
       <c r="T36" s="72"/>
       <c r="U36" s="72"/>
       <c r="V36" s="72"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="80"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="80"/>
+      <c r="AD36" s="80"/>
+      <c r="AE36" s="82"/>
       <c r="AF36" s="65"/>
-      <c r="AG36" s="81"/>
-      <c r="AH36" s="82"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="82"/>
-      <c r="AK36" s="82"/>
-      <c r="AL36" s="82"/>
-      <c r="AM36" s="82"/>
-      <c r="AN36" s="83"/>
+      <c r="AG36" s="83"/>
+      <c r="AH36" s="84"/>
+      <c r="AI36" s="84"/>
+      <c r="AJ36" s="84"/>
+      <c r="AK36" s="84"/>
+      <c r="AL36" s="84"/>
+      <c r="AM36" s="84"/>
+      <c r="AN36" s="85"/>
       <c r="AO36" s="66"/>
       <c r="AP36" s="72"/>
       <c r="AQ36" s="72"/>
@@ -3689,15 +3739,15 @@
       <c r="AS36" s="72"/>
       <c r="AT36" s="72"/>
       <c r="AU36" s="72"/>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="81"/>
-      <c r="AX36" s="82"/>
-      <c r="AY36" s="82"/>
-      <c r="AZ36" s="82"/>
-      <c r="BA36" s="82"/>
-      <c r="BB36" s="82"/>
-      <c r="BC36" s="82"/>
-      <c r="BD36" s="83"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="83"/>
+      <c r="AX36" s="84"/>
+      <c r="AY36" s="84"/>
+      <c r="AZ36" s="84"/>
+      <c r="BA36" s="84"/>
+      <c r="BB36" s="84"/>
+      <c r="BC36" s="84"/>
+      <c r="BD36" s="85"/>
       <c r="BE36" s="66"/>
       <c r="BF36" s="72"/>
       <c r="BG36" s="72"/>
@@ -3705,7 +3755,7 @@
       <c r="BI36" s="72"/>
       <c r="BJ36" s="72"/>
       <c r="BK36" s="72"/>
-      <c r="BL36" s="73"/>
+      <c r="BL36" s="74"/>
       <c r="BM36" s="65"/>
       <c r="BN36" s="65"/>
       <c r="BO36" s="65"/>
@@ -3722,7 +3772,7 @@
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
       <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
+      <c r="J37" s="74"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
       <c r="M37" s="72"/>
@@ -3735,24 +3785,24 @@
       <c r="T37" s="68"/>
       <c r="U37" s="68"/>
       <c r="V37" s="68"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="86"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="86"/>
-      <c r="AE37" s="87"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="80"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="82"/>
       <c r="AF37" s="65"/>
-      <c r="AG37" s="81"/>
-      <c r="AH37" s="82"/>
-      <c r="AI37" s="82"/>
-      <c r="AJ37" s="82"/>
-      <c r="AK37" s="82"/>
-      <c r="AL37" s="82"/>
-      <c r="AM37" s="82"/>
-      <c r="AN37" s="83"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="84"/>
+      <c r="AI37" s="84"/>
+      <c r="AJ37" s="84"/>
+      <c r="AK37" s="84"/>
+      <c r="AL37" s="84"/>
+      <c r="AM37" s="84"/>
+      <c r="AN37" s="85"/>
       <c r="AO37" s="66"/>
       <c r="AP37" s="72"/>
       <c r="AQ37" s="72"/>
@@ -3760,15 +3810,15 @@
       <c r="AS37" s="72"/>
       <c r="AT37" s="72"/>
       <c r="AU37" s="72"/>
-      <c r="AV37" s="73"/>
-      <c r="AW37" s="81"/>
-      <c r="AX37" s="82"/>
-      <c r="AY37" s="82"/>
-      <c r="AZ37" s="82"/>
-      <c r="BA37" s="82"/>
-      <c r="BB37" s="82"/>
-      <c r="BC37" s="82"/>
-      <c r="BD37" s="83"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="83"/>
+      <c r="AX37" s="84"/>
+      <c r="AY37" s="84"/>
+      <c r="AZ37" s="84"/>
+      <c r="BA37" s="84"/>
+      <c r="BB37" s="84"/>
+      <c r="BC37" s="84"/>
+      <c r="BD37" s="85"/>
       <c r="BE37" s="66"/>
       <c r="BF37" s="72"/>
       <c r="BG37" s="72"/>
@@ -3776,7 +3826,7 @@
       <c r="BI37" s="72"/>
       <c r="BJ37" s="72"/>
       <c r="BK37" s="72"/>
-      <c r="BL37" s="73"/>
+      <c r="BL37" s="74"/>
       <c r="BM37" s="65"/>
       <c r="BN37" s="65"/>
       <c r="BO37" s="65"/>
@@ -3793,7 +3843,7 @@
       <c r="G38" s="72"/>
       <c r="H38" s="72"/>
       <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
+      <c r="J38" s="74"/>
       <c r="K38" s="68"/>
       <c r="L38" s="68"/>
       <c r="M38" s="68"/>
@@ -3806,24 +3856,24 @@
       <c r="T38" s="68"/>
       <c r="U38" s="68"/>
       <c r="V38" s="68"/>
-      <c r="W38" s="84"/>
+      <c r="W38" s="86"/>
       <c r="X38" s="88"/>
-      <c r="Y38" s="86"/>
-      <c r="Z38" s="86"/>
-      <c r="AA38" s="86"/>
-      <c r="AB38" s="86"/>
-      <c r="AC38" s="86"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="87"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="89"/>
+      <c r="AC38" s="80"/>
+      <c r="AD38" s="80"/>
+      <c r="AE38" s="82"/>
       <c r="AF38" s="65"/>
-      <c r="AG38" s="81"/>
-      <c r="AH38" s="82"/>
-      <c r="AI38" s="82"/>
-      <c r="AJ38" s="82"/>
-      <c r="AK38" s="82"/>
-      <c r="AL38" s="82"/>
-      <c r="AM38" s="82"/>
-      <c r="AN38" s="83"/>
+      <c r="AG38" s="83"/>
+      <c r="AH38" s="84"/>
+      <c r="AI38" s="84"/>
+      <c r="AJ38" s="84"/>
+      <c r="AK38" s="84"/>
+      <c r="AL38" s="84"/>
+      <c r="AM38" s="84"/>
+      <c r="AN38" s="85"/>
       <c r="AO38" s="66"/>
       <c r="AP38" s="72"/>
       <c r="AQ38" s="72"/>
@@ -3831,15 +3881,15 @@
       <c r="AS38" s="72"/>
       <c r="AT38" s="72"/>
       <c r="AU38" s="72"/>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="81"/>
-      <c r="AX38" s="82"/>
-      <c r="AY38" s="82"/>
-      <c r="AZ38" s="82"/>
-      <c r="BA38" s="82"/>
-      <c r="BB38" s="82"/>
-      <c r="BC38" s="82"/>
-      <c r="BD38" s="83"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="83"/>
+      <c r="AX38" s="84"/>
+      <c r="AY38" s="84"/>
+      <c r="AZ38" s="84"/>
+      <c r="BA38" s="84"/>
+      <c r="BB38" s="84"/>
+      <c r="BC38" s="84"/>
+      <c r="BD38" s="85"/>
       <c r="BE38" s="66"/>
       <c r="BF38" s="72"/>
       <c r="BG38" s="72"/>
@@ -3847,7 +3897,7 @@
       <c r="BI38" s="72"/>
       <c r="BJ38" s="72"/>
       <c r="BK38" s="72"/>
-      <c r="BL38" s="73"/>
+      <c r="BL38" s="74"/>
       <c r="BM38" s="65"/>
       <c r="BN38" s="65"/>
       <c r="BO38" s="65"/>
@@ -3864,7 +3914,7 @@
       <c r="G39" s="68"/>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
-      <c r="J39" s="84"/>
+      <c r="J39" s="86"/>
       <c r="K39" s="66"/>
       <c r="L39" s="72"/>
       <c r="M39" s="72"/>
@@ -3877,24 +3927,24 @@
       <c r="T39" s="72"/>
       <c r="U39" s="72"/>
       <c r="V39" s="72"/>
-      <c r="W39" s="73"/>
+      <c r="W39" s="74"/>
       <c r="X39" s="88"/>
-      <c r="Y39" s="86"/>
-      <c r="Z39" s="86"/>
-      <c r="AA39" s="86"/>
-      <c r="AB39" s="86"/>
-      <c r="AC39" s="86"/>
-      <c r="AD39" s="86"/>
-      <c r="AE39" s="87"/>
+      <c r="Y39" s="80"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="87"/>
+      <c r="AC39" s="80"/>
+      <c r="AD39" s="80"/>
+      <c r="AE39" s="82"/>
       <c r="AF39" s="65"/>
-      <c r="AG39" s="81"/>
-      <c r="AH39" s="82"/>
-      <c r="AI39" s="82"/>
-      <c r="AJ39" s="82"/>
-      <c r="AK39" s="82"/>
-      <c r="AL39" s="82"/>
-      <c r="AM39" s="82"/>
-      <c r="AN39" s="83"/>
+      <c r="AG39" s="83"/>
+      <c r="AH39" s="84"/>
+      <c r="AI39" s="84"/>
+      <c r="AJ39" s="84"/>
+      <c r="AK39" s="84"/>
+      <c r="AL39" s="84"/>
+      <c r="AM39" s="84"/>
+      <c r="AN39" s="85"/>
       <c r="AO39" s="66"/>
       <c r="AP39" s="72"/>
       <c r="AQ39" s="72"/>
@@ -3902,15 +3952,15 @@
       <c r="AS39" s="72"/>
       <c r="AT39" s="72"/>
       <c r="AU39" s="72"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="81"/>
-      <c r="AX39" s="82"/>
-      <c r="AY39" s="82"/>
-      <c r="AZ39" s="82"/>
-      <c r="BA39" s="82"/>
-      <c r="BB39" s="82"/>
-      <c r="BC39" s="82"/>
-      <c r="BD39" s="83"/>
+      <c r="AV39" s="74"/>
+      <c r="AW39" s="83"/>
+      <c r="AX39" s="84"/>
+      <c r="AY39" s="84"/>
+      <c r="AZ39" s="84"/>
+      <c r="BA39" s="84"/>
+      <c r="BB39" s="84"/>
+      <c r="BC39" s="84"/>
+      <c r="BD39" s="85"/>
       <c r="BE39" s="66"/>
       <c r="BF39" s="72"/>
       <c r="BG39" s="72"/>
@@ -3918,7 +3968,7 @@
       <c r="BI39" s="72"/>
       <c r="BJ39" s="72"/>
       <c r="BK39" s="72"/>
-      <c r="BL39" s="73"/>
+      <c r="BL39" s="74"/>
       <c r="BM39" s="65"/>
       <c r="BN39" s="65"/>
       <c r="BO39" s="65"/>
@@ -3935,7 +3985,7 @@
       <c r="G40" s="68"/>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
-      <c r="J40" s="84"/>
+      <c r="J40" s="86"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
       <c r="M40" s="65"/>
@@ -3948,24 +3998,24 @@
       <c r="T40" s="65"/>
       <c r="U40" s="65"/>
       <c r="V40" s="65"/>
-      <c r="W40" s="76"/>
+      <c r="W40" s="77"/>
       <c r="X40" s="88"/>
-      <c r="Y40" s="86"/>
-      <c r="Z40" s="86"/>
-      <c r="AA40" s="86"/>
-      <c r="AB40" s="86"/>
-      <c r="AC40" s="86"/>
-      <c r="AD40" s="86"/>
-      <c r="AE40" s="87"/>
+      <c r="Y40" s="80"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="80"/>
+      <c r="AE40" s="82"/>
       <c r="AF40" s="65"/>
-      <c r="AG40" s="81"/>
-      <c r="AH40" s="82"/>
-      <c r="AI40" s="82"/>
-      <c r="AJ40" s="82"/>
-      <c r="AK40" s="82"/>
-      <c r="AL40" s="82"/>
-      <c r="AM40" s="82"/>
-      <c r="AN40" s="83"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="84"/>
+      <c r="AI40" s="84"/>
+      <c r="AJ40" s="84"/>
+      <c r="AK40" s="84"/>
+      <c r="AL40" s="84"/>
+      <c r="AM40" s="84"/>
+      <c r="AN40" s="85"/>
       <c r="AO40" s="66"/>
       <c r="AP40" s="72"/>
       <c r="AQ40" s="72"/>
@@ -3973,15 +4023,15 @@
       <c r="AS40" s="72"/>
       <c r="AT40" s="72"/>
       <c r="AU40" s="72"/>
-      <c r="AV40" s="73"/>
-      <c r="AW40" s="81"/>
-      <c r="AX40" s="82"/>
-      <c r="AY40" s="82"/>
-      <c r="AZ40" s="82"/>
-      <c r="BA40" s="82"/>
-      <c r="BB40" s="82"/>
-      <c r="BC40" s="82"/>
-      <c r="BD40" s="83"/>
+      <c r="AV40" s="74"/>
+      <c r="AW40" s="83"/>
+      <c r="AX40" s="84"/>
+      <c r="AY40" s="84"/>
+      <c r="AZ40" s="84"/>
+      <c r="BA40" s="84"/>
+      <c r="BB40" s="84"/>
+      <c r="BC40" s="84"/>
+      <c r="BD40" s="85"/>
       <c r="BE40" s="66"/>
       <c r="BF40" s="72"/>
       <c r="BG40" s="72"/>
@@ -3989,7 +4039,7 @@
       <c r="BI40" s="72"/>
       <c r="BJ40" s="72"/>
       <c r="BK40" s="72"/>
-      <c r="BL40" s="73"/>
+      <c r="BL40" s="74"/>
       <c r="BM40" s="65"/>
       <c r="BN40" s="65"/>
       <c r="BO40" s="65"/>
@@ -4006,7 +4056,7 @@
       <c r="G41" s="72"/>
       <c r="H41" s="72"/>
       <c r="I41" s="72"/>
-      <c r="J41" s="73"/>
+      <c r="J41" s="74"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
@@ -4019,24 +4069,24 @@
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
       <c r="V41" s="72"/>
-      <c r="W41" s="73"/>
+      <c r="W41" s="74"/>
       <c r="X41" s="88"/>
-      <c r="Y41" s="86"/>
-      <c r="Z41" s="86"/>
-      <c r="AA41" s="86"/>
-      <c r="AB41" s="86"/>
-      <c r="AC41" s="86"/>
-      <c r="AD41" s="86"/>
-      <c r="AE41" s="87"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="82"/>
       <c r="AF41" s="65"/>
-      <c r="AG41" s="81"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-      <c r="AJ41" s="82"/>
-      <c r="AK41" s="82"/>
-      <c r="AL41" s="82"/>
-      <c r="AM41" s="82"/>
-      <c r="AN41" s="83"/>
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="84"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="84"/>
+      <c r="AK41" s="84"/>
+      <c r="AL41" s="84"/>
+      <c r="AM41" s="84"/>
+      <c r="AN41" s="85"/>
       <c r="AO41" s="66"/>
       <c r="AP41" s="72"/>
       <c r="AQ41" s="72"/>
@@ -4044,15 +4094,15 @@
       <c r="AS41" s="72"/>
       <c r="AT41" s="72"/>
       <c r="AU41" s="72"/>
-      <c r="AV41" s="73"/>
-      <c r="AW41" s="81"/>
-      <c r="AX41" s="82"/>
-      <c r="AY41" s="82"/>
-      <c r="AZ41" s="82"/>
-      <c r="BA41" s="82"/>
-      <c r="BB41" s="82"/>
-      <c r="BC41" s="82"/>
-      <c r="BD41" s="83"/>
+      <c r="AV41" s="74"/>
+      <c r="AW41" s="83"/>
+      <c r="AX41" s="84"/>
+      <c r="AY41" s="84"/>
+      <c r="AZ41" s="84"/>
+      <c r="BA41" s="84"/>
+      <c r="BB41" s="84"/>
+      <c r="BC41" s="84"/>
+      <c r="BD41" s="85"/>
       <c r="BE41" s="66"/>
       <c r="BF41" s="72"/>
       <c r="BG41" s="72"/>
@@ -4060,7 +4110,7 @@
       <c r="BI41" s="72"/>
       <c r="BJ41" s="72"/>
       <c r="BK41" s="72"/>
-      <c r="BL41" s="73"/>
+      <c r="BL41" s="74"/>
       <c r="BM41" s="65"/>
       <c r="BN41" s="65"/>
       <c r="BO41" s="65"/>
@@ -4092,22 +4142,22 @@
       <c r="V42" s="70"/>
       <c r="W42" s="71"/>
       <c r="X42" s="88"/>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="86"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="86"/>
-      <c r="AC42" s="86"/>
-      <c r="AD42" s="86"/>
-      <c r="AE42" s="87"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
+      <c r="AE42" s="82"/>
       <c r="AF42" s="65"/>
-      <c r="AG42" s="81"/>
-      <c r="AH42" s="82"/>
-      <c r="AI42" s="82"/>
-      <c r="AJ42" s="82"/>
-      <c r="AK42" s="82"/>
-      <c r="AL42" s="82"/>
-      <c r="AM42" s="82"/>
-      <c r="AN42" s="83"/>
+      <c r="AG42" s="83"/>
+      <c r="AH42" s="84"/>
+      <c r="AI42" s="84"/>
+      <c r="AJ42" s="84"/>
+      <c r="AK42" s="84"/>
+      <c r="AL42" s="84"/>
+      <c r="AM42" s="84"/>
+      <c r="AN42" s="85"/>
       <c r="AO42" s="66"/>
       <c r="AP42" s="72"/>
       <c r="AQ42" s="72"/>
@@ -4115,15 +4165,15 @@
       <c r="AS42" s="72"/>
       <c r="AT42" s="72"/>
       <c r="AU42" s="72"/>
-      <c r="AV42" s="73"/>
-      <c r="AW42" s="81"/>
-      <c r="AX42" s="82"/>
-      <c r="AY42" s="82"/>
-      <c r="AZ42" s="82"/>
-      <c r="BA42" s="82"/>
-      <c r="BB42" s="82"/>
-      <c r="BC42" s="82"/>
-      <c r="BD42" s="83"/>
+      <c r="AV42" s="74"/>
+      <c r="AW42" s="83"/>
+      <c r="AX42" s="84"/>
+      <c r="AY42" s="84"/>
+      <c r="AZ42" s="84"/>
+      <c r="BA42" s="84"/>
+      <c r="BB42" s="84"/>
+      <c r="BC42" s="84"/>
+      <c r="BD42" s="85"/>
       <c r="BE42" s="66"/>
       <c r="BF42" s="72"/>
       <c r="BG42" s="72"/>
@@ -4131,7 +4181,7 @@
       <c r="BI42" s="72"/>
       <c r="BJ42" s="72"/>
       <c r="BK42" s="72"/>
-      <c r="BL42" s="73"/>
+      <c r="BL42" s="74"/>
       <c r="BM42" s="65"/>
       <c r="BN42" s="65"/>
       <c r="BO42" s="65"/>
@@ -4276,253 +4326,253 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="61"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="89"/>
-      <c r="V45" s="89" t="s">
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="W45" s="89"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="90"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="93"/>
       <c r="AC45" s="7"/>
-      <c r="AD45" s="89"/>
-      <c r="AE45" s="89"/>
-      <c r="AF45" s="89"/>
-      <c r="AG45" s="89" t="s">
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="92"/>
+      <c r="AG45" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="AH45" s="89"/>
-      <c r="AI45" s="89"/>
-      <c r="AJ45" s="89"/>
-      <c r="AK45" s="89"/>
-      <c r="AL45" s="89"/>
-      <c r="AM45" s="89"/>
-      <c r="AN45" s="89"/>
-      <c r="AO45" s="89"/>
-      <c r="AP45" s="90"/>
-      <c r="AQ45" s="91"/>
-      <c r="AR45" s="89"/>
-      <c r="AS45" s="89"/>
-      <c r="AT45" s="89"/>
-      <c r="AU45" s="89" t="s">
+      <c r="AH45" s="92"/>
+      <c r="AI45" s="92"/>
+      <c r="AJ45" s="92"/>
+      <c r="AK45" s="92"/>
+      <c r="AL45" s="92"/>
+      <c r="AM45" s="92"/>
+      <c r="AN45" s="92"/>
+      <c r="AO45" s="92"/>
+      <c r="AP45" s="93"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="92"/>
+      <c r="AS45" s="92"/>
+      <c r="AT45" s="92"/>
+      <c r="AU45" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="AV45" s="89"/>
-      <c r="AW45" s="89"/>
-      <c r="AX45" s="89"/>
-      <c r="AY45" s="89"/>
-      <c r="AZ45" s="89"/>
-      <c r="BA45" s="89"/>
-      <c r="BB45" s="89"/>
-      <c r="BC45" s="89"/>
-      <c r="BD45" s="90"/>
-      <c r="BE45" s="91"/>
-      <c r="BF45" s="89" t="s">
+      <c r="AV45" s="92"/>
+      <c r="AW45" s="92"/>
+      <c r="AX45" s="92"/>
+      <c r="AY45" s="92"/>
+      <c r="AZ45" s="92"/>
+      <c r="BA45" s="92"/>
+      <c r="BB45" s="92"/>
+      <c r="BC45" s="92"/>
+      <c r="BD45" s="93"/>
+      <c r="BE45" s="94"/>
+      <c r="BF45" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="BG45" s="89"/>
-      <c r="BH45" s="89"/>
-      <c r="BI45" s="89"/>
-      <c r="BJ45" s="89"/>
-      <c r="BK45" s="89"/>
-      <c r="BL45" s="90"/>
-      <c r="BM45" s="92"/>
-      <c r="BN45" s="92"/>
-      <c r="BO45" s="92"/>
+      <c r="BG45" s="92"/>
+      <c r="BH45" s="92"/>
+      <c r="BI45" s="92"/>
+      <c r="BJ45" s="92"/>
+      <c r="BK45" s="92"/>
+      <c r="BL45" s="93"/>
+      <c r="BM45" s="95"/>
+      <c r="BN45" s="95"/>
+      <c r="BO45" s="95"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94" t="s">
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="95"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="98"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94" t="s">
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="94"/>
-      <c r="AF46" s="94"/>
-      <c r="AG46" s="94" t="s">
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="99"/>
+      <c r="AD46" s="97"/>
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="97"/>
+      <c r="AG46" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="AH46" s="94"/>
-      <c r="AI46" s="94"/>
-      <c r="AJ46" s="94"/>
-      <c r="AK46" s="94"/>
-      <c r="AL46" s="94"/>
-      <c r="AM46" s="94"/>
-      <c r="AN46" s="94"/>
-      <c r="AO46" s="94"/>
-      <c r="AP46" s="95"/>
-      <c r="AQ46" s="94"/>
-      <c r="AR46" s="94"/>
-      <c r="AS46" s="94"/>
-      <c r="AT46" s="94"/>
-      <c r="AU46" s="94"/>
-      <c r="AV46" s="94"/>
-      <c r="AW46" s="94"/>
-      <c r="AX46" s="94"/>
-      <c r="AY46" s="94"/>
-      <c r="AZ46" s="94"/>
-      <c r="BA46" s="94"/>
-      <c r="BB46" s="94"/>
-      <c r="BC46" s="94"/>
-      <c r="BD46" s="95"/>
-      <c r="BE46" s="94"/>
-      <c r="BF46" s="94"/>
-      <c r="BG46" s="94"/>
-      <c r="BH46" s="94"/>
-      <c r="BI46" s="94"/>
-      <c r="BJ46" s="94"/>
-      <c r="BK46" s="94"/>
-      <c r="BL46" s="95"/>
-      <c r="BM46" s="92"/>
-      <c r="BN46" s="92"/>
-      <c r="BO46" s="92"/>
+      <c r="AH46" s="97"/>
+      <c r="AI46" s="97"/>
+      <c r="AJ46" s="97"/>
+      <c r="AK46" s="97"/>
+      <c r="AL46" s="97"/>
+      <c r="AM46" s="97"/>
+      <c r="AN46" s="97"/>
+      <c r="AO46" s="97"/>
+      <c r="AP46" s="98"/>
+      <c r="AQ46" s="97"/>
+      <c r="AR46" s="97"/>
+      <c r="AS46" s="97"/>
+      <c r="AT46" s="97"/>
+      <c r="AU46" s="97"/>
+      <c r="AV46" s="97"/>
+      <c r="AW46" s="97"/>
+      <c r="AX46" s="97"/>
+      <c r="AY46" s="97"/>
+      <c r="AZ46" s="97"/>
+      <c r="BA46" s="97"/>
+      <c r="BB46" s="97"/>
+      <c r="BC46" s="97"/>
+      <c r="BD46" s="98"/>
+      <c r="BE46" s="97"/>
+      <c r="BF46" s="97"/>
+      <c r="BG46" s="97"/>
+      <c r="BH46" s="97"/>
+      <c r="BI46" s="97"/>
+      <c r="BJ46" s="97"/>
+      <c r="BK46" s="97"/>
+      <c r="BL46" s="98"/>
+      <c r="BM46" s="95"/>
+      <c r="BN46" s="95"/>
+      <c r="BO46" s="95"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="77"/>
-      <c r="AD47" s="74"/>
-      <c r="AE47" s="74"/>
-      <c r="AF47" s="74"/>
-      <c r="AG47" s="74"/>
-      <c r="AH47" s="74"/>
-      <c r="AI47" s="74"/>
-      <c r="AJ47" s="74"/>
-      <c r="AK47" s="74"/>
-      <c r="AL47" s="74"/>
-      <c r="AM47" s="74"/>
-      <c r="AN47" s="74"/>
-      <c r="AO47" s="74"/>
-      <c r="AP47" s="75"/>
-      <c r="AQ47" s="74"/>
-      <c r="AR47" s="74"/>
-      <c r="AS47" s="74"/>
-      <c r="AT47" s="74"/>
-      <c r="AU47" s="74"/>
-      <c r="AV47" s="74"/>
-      <c r="AW47" s="74"/>
-      <c r="AX47" s="74"/>
-      <c r="AY47" s="74"/>
-      <c r="AZ47" s="74"/>
-      <c r="BA47" s="74"/>
-      <c r="BB47" s="74"/>
-      <c r="BC47" s="74"/>
-      <c r="BD47" s="75"/>
-      <c r="BE47" s="74"/>
-      <c r="BF47" s="74"/>
-      <c r="BG47" s="74"/>
-      <c r="BH47" s="74"/>
-      <c r="BI47" s="74"/>
-      <c r="BJ47" s="74"/>
-      <c r="BK47" s="74"/>
-      <c r="BL47" s="75"/>
-      <c r="BM47" s="92"/>
-      <c r="BN47" s="92"/>
-      <c r="BO47" s="92"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="78"/>
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="75"/>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="75"/>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="75"/>
+      <c r="AL47" s="75"/>
+      <c r="AM47" s="75"/>
+      <c r="AN47" s="75"/>
+      <c r="AO47" s="75"/>
+      <c r="AP47" s="76"/>
+      <c r="AQ47" s="75"/>
+      <c r="AR47" s="75"/>
+      <c r="AS47" s="75"/>
+      <c r="AT47" s="75"/>
+      <c r="AU47" s="75"/>
+      <c r="AV47" s="75"/>
+      <c r="AW47" s="75"/>
+      <c r="AX47" s="75"/>
+      <c r="AY47" s="75"/>
+      <c r="AZ47" s="75"/>
+      <c r="BA47" s="75"/>
+      <c r="BB47" s="75"/>
+      <c r="BC47" s="75"/>
+      <c r="BD47" s="76"/>
+      <c r="BE47" s="75"/>
+      <c r="BF47" s="75"/>
+      <c r="BG47" s="75"/>
+      <c r="BH47" s="75"/>
+      <c r="BI47" s="75"/>
+      <c r="BJ47" s="75"/>
+      <c r="BK47" s="75"/>
+      <c r="BL47" s="76"/>
+      <c r="BM47" s="95"/>
+      <c r="BN47" s="95"/>
+      <c r="BO47" s="95"/>
     </row>
     <row r="48" ht="11.25" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="74" t="s">
+      <c r="A48" s="78"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="77" t="s">
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="76"/>
       <c r="R48" s="62"/>
       <c r="S48" s="63"/>
       <c r="T48" s="63"/>
@@ -4543,44 +4593,44 @@
       <c r="AG48" s="63"/>
       <c r="AH48" s="63"/>
       <c r="AI48" s="64"/>
-      <c r="AJ48" s="74" t="s">
+      <c r="AJ48" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="AK48" s="74"/>
-      <c r="AL48" s="74"/>
-      <c r="AM48" s="74"/>
-      <c r="AN48" s="74"/>
-      <c r="AO48" s="74"/>
-      <c r="AP48" s="74"/>
-      <c r="AQ48" s="98" t="s">
+      <c r="AK48" s="75"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75"/>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="AR48" s="98"/>
-      <c r="AS48" s="98"/>
-      <c r="AT48" s="98"/>
-      <c r="AU48" s="98"/>
-      <c r="AV48" s="98"/>
-      <c r="AW48" s="98"/>
-      <c r="AX48" s="99" t="s">
+      <c r="AR48" s="101"/>
+      <c r="AS48" s="101"/>
+      <c r="AT48" s="101"/>
+      <c r="AU48" s="101"/>
+      <c r="AV48" s="101"/>
+      <c r="AW48" s="101"/>
+      <c r="AX48" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AY48" s="99"/>
-      <c r="AZ48" s="99"/>
-      <c r="BA48" s="99"/>
-      <c r="BB48" s="99"/>
-      <c r="BC48" s="99"/>
-      <c r="BD48" s="99"/>
-      <c r="BE48" s="77"/>
-      <c r="BF48" s="74"/>
-      <c r="BG48" s="74"/>
-      <c r="BH48" s="74"/>
-      <c r="BI48" s="74"/>
-      <c r="BJ48" s="74"/>
-      <c r="BK48" s="74"/>
-      <c r="BL48" s="75"/>
-      <c r="BM48" s="92"/>
-      <c r="BN48" s="92"/>
-      <c r="BO48" s="92"/>
+      <c r="AY48" s="102"/>
+      <c r="AZ48" s="102"/>
+      <c r="BA48" s="102"/>
+      <c r="BB48" s="102"/>
+      <c r="BC48" s="102"/>
+      <c r="BD48" s="102"/>
+      <c r="BE48" s="78"/>
+      <c r="BF48" s="75"/>
+      <c r="BG48" s="75"/>
+      <c r="BH48" s="75"/>
+      <c r="BI48" s="75"/>
+      <c r="BJ48" s="75"/>
+      <c r="BK48" s="75"/>
+      <c r="BL48" s="76"/>
+      <c r="BM48" s="95"/>
+      <c r="BN48" s="95"/>
+      <c r="BO48" s="95"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="62"/>
@@ -4665,371 +4715,371 @@
       <c r="BJ49" s="63"/>
       <c r="BK49" s="63"/>
       <c r="BL49" s="64"/>
-      <c r="BM49" s="100"/>
-      <c r="BN49" s="100"/>
-      <c r="BO49" s="100"/>
+      <c r="BM49" s="103"/>
+      <c r="BN49" s="103"/>
+      <c r="BO49" s="103"/>
     </row>
     <row r="50" ht="26.25" customHeight="1">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="107"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="109"/>
-      <c r="W50" s="109"/>
-      <c r="X50" s="109"/>
-      <c r="Y50" s="109"/>
-      <c r="Z50" s="109"/>
-      <c r="AA50" s="109"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="113"/>
-      <c r="AJ50" s="114"/>
-      <c r="AK50" s="114"/>
-      <c r="AL50" s="114"/>
-      <c r="AM50" s="114"/>
-      <c r="AN50" s="114"/>
-      <c r="AO50" s="114"/>
-      <c r="AP50" s="114"/>
-      <c r="AQ50" s="115" t="s">
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="113"/>
+      <c r="S50" s="114"/>
+      <c r="T50" s="114"/>
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="115"/>
+      <c r="Y50" s="114"/>
+      <c r="Z50" s="114"/>
+      <c r="AA50" s="114"/>
+      <c r="AB50" s="116"/>
+      <c r="AC50" s="117"/>
+      <c r="AD50" s="118"/>
+      <c r="AE50" s="118"/>
+      <c r="AF50" s="119"/>
+      <c r="AG50" s="118"/>
+      <c r="AH50" s="118"/>
+      <c r="AI50" s="120"/>
+      <c r="AJ50" s="121"/>
+      <c r="AK50" s="121"/>
+      <c r="AL50" s="121"/>
+      <c r="AM50" s="121"/>
+      <c r="AN50" s="121"/>
+      <c r="AO50" s="121"/>
+      <c r="AP50" s="121"/>
+      <c r="AQ50" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="AR50" s="116"/>
-      <c r="AS50" s="116"/>
-      <c r="AT50" s="116"/>
-      <c r="AU50" s="116"/>
-      <c r="AV50" s="116"/>
-      <c r="AW50" s="117"/>
-      <c r="AX50" s="118"/>
-      <c r="AY50" s="118"/>
-      <c r="AZ50" s="118"/>
-      <c r="BA50" s="118"/>
-      <c r="BB50" s="118"/>
-      <c r="BC50" s="118"/>
-      <c r="BD50" s="118"/>
-      <c r="BE50" s="119"/>
-      <c r="BF50" s="120"/>
-      <c r="BG50" s="120"/>
-      <c r="BH50" s="120"/>
-      <c r="BI50" s="120"/>
-      <c r="BJ50" s="120"/>
-      <c r="BK50" s="120"/>
-      <c r="BL50" s="121"/>
+      <c r="AR50" s="123"/>
+      <c r="AS50" s="123"/>
+      <c r="AT50" s="123"/>
+      <c r="AU50" s="123"/>
+      <c r="AV50" s="123"/>
+      <c r="AW50" s="124"/>
+      <c r="AX50" s="125"/>
+      <c r="AY50" s="125"/>
+      <c r="AZ50" s="125"/>
+      <c r="BA50" s="125"/>
+      <c r="BB50" s="125"/>
+      <c r="BC50" s="125"/>
+      <c r="BD50" s="125"/>
+      <c r="BE50" s="126"/>
+      <c r="BF50" s="127"/>
+      <c r="BG50" s="127"/>
+      <c r="BH50" s="127"/>
+      <c r="BI50" s="127"/>
+      <c r="BJ50" s="127"/>
+      <c r="BK50" s="127"/>
+      <c r="BL50" s="128"/>
       <c r="BM50" s="2"/>
       <c r="BN50" s="2"/>
       <c r="BO50" s="2"/>
     </row>
     <row r="51" ht="26.25" customHeight="1">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="127"/>
-      <c r="R51" s="128"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
-      <c r="U51" s="129"/>
-      <c r="V51" s="129"/>
-      <c r="W51" s="129"/>
-      <c r="X51" s="129"/>
-      <c r="Y51" s="129"/>
-      <c r="Z51" s="129"/>
-      <c r="AA51" s="129"/>
-      <c r="AB51" s="130"/>
-      <c r="AC51" s="131"/>
-      <c r="AD51" s="132"/>
-      <c r="AE51" s="132"/>
-      <c r="AF51" s="132"/>
-      <c r="AG51" s="132"/>
-      <c r="AH51" s="132"/>
-      <c r="AI51" s="133"/>
-      <c r="AJ51" s="134"/>
-      <c r="AK51" s="134"/>
-      <c r="AL51" s="134"/>
-      <c r="AM51" s="134"/>
-      <c r="AN51" s="134"/>
-      <c r="AO51" s="134"/>
-      <c r="AP51" s="134"/>
-      <c r="AQ51" s="135" t="s">
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="134"/>
+      <c r="P51" s="134"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="137"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="138"/>
+      <c r="V51" s="138"/>
+      <c r="W51" s="138"/>
+      <c r="X51" s="139"/>
+      <c r="Y51" s="138"/>
+      <c r="Z51" s="138"/>
+      <c r="AA51" s="138"/>
+      <c r="AB51" s="140"/>
+      <c r="AC51" s="141"/>
+      <c r="AD51" s="142"/>
+      <c r="AE51" s="142"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="142"/>
+      <c r="AH51" s="142"/>
+      <c r="AI51" s="144"/>
+      <c r="AJ51" s="145"/>
+      <c r="AK51" s="145"/>
+      <c r="AL51" s="145"/>
+      <c r="AM51" s="145"/>
+      <c r="AN51" s="145"/>
+      <c r="AO51" s="145"/>
+      <c r="AP51" s="145"/>
+      <c r="AQ51" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="AR51" s="136"/>
-      <c r="AS51" s="136"/>
-      <c r="AT51" s="136"/>
-      <c r="AU51" s="136"/>
-      <c r="AV51" s="136"/>
-      <c r="AW51" s="137"/>
-      <c r="AX51" s="138"/>
-      <c r="AY51" s="138"/>
-      <c r="AZ51" s="138"/>
-      <c r="BA51" s="138"/>
-      <c r="BB51" s="138"/>
-      <c r="BC51" s="138"/>
-      <c r="BD51" s="138"/>
-      <c r="BE51" s="139"/>
-      <c r="BF51" s="138"/>
-      <c r="BG51" s="138"/>
-      <c r="BH51" s="138"/>
-      <c r="BI51" s="138"/>
-      <c r="BJ51" s="138"/>
-      <c r="BK51" s="138"/>
-      <c r="BL51" s="140"/>
+      <c r="AR51" s="147"/>
+      <c r="AS51" s="147"/>
+      <c r="AT51" s="147"/>
+      <c r="AU51" s="147"/>
+      <c r="AV51" s="147"/>
+      <c r="AW51" s="148"/>
+      <c r="AX51" s="149"/>
+      <c r="AY51" s="149"/>
+      <c r="AZ51" s="149"/>
+      <c r="BA51" s="149"/>
+      <c r="BB51" s="149"/>
+      <c r="BC51" s="149"/>
+      <c r="BD51" s="149"/>
+      <c r="BE51" s="150"/>
+      <c r="BF51" s="149"/>
+      <c r="BG51" s="149"/>
+      <c r="BH51" s="149"/>
+      <c r="BI51" s="149"/>
+      <c r="BJ51" s="149"/>
+      <c r="BK51" s="149"/>
+      <c r="BL51" s="151"/>
       <c r="BM51" s="2"/>
       <c r="BN51" s="2"/>
       <c r="BO51" s="2"/>
     </row>
     <row r="52" ht="26.25" customHeight="1">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="106"/>
-      <c r="P52" s="106"/>
-      <c r="Q52" s="107"/>
-      <c r="R52" s="144"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
-      <c r="W52" s="109"/>
-      <c r="X52" s="109"/>
-      <c r="Y52" s="109"/>
-      <c r="Z52" s="109"/>
-      <c r="AA52" s="109"/>
-      <c r="AB52" s="110"/>
-      <c r="AC52" s="145"/>
-      <c r="AD52" s="146"/>
-      <c r="AE52" s="146"/>
-      <c r="AF52" s="146"/>
-      <c r="AG52" s="146"/>
-      <c r="AH52" s="146"/>
-      <c r="AI52" s="147"/>
-      <c r="AJ52" s="114"/>
-      <c r="AK52" s="114"/>
-      <c r="AL52" s="114"/>
-      <c r="AM52" s="114"/>
-      <c r="AN52" s="114"/>
-      <c r="AO52" s="114"/>
-      <c r="AP52" s="114"/>
-      <c r="AQ52" s="148" t="s">
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="110"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="112"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="115"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="116"/>
+      <c r="AC52" s="157"/>
+      <c r="AD52" s="158"/>
+      <c r="AE52" s="158"/>
+      <c r="AF52" s="159"/>
+      <c r="AG52" s="158"/>
+      <c r="AH52" s="158"/>
+      <c r="AI52" s="160"/>
+      <c r="AJ52" s="121"/>
+      <c r="AK52" s="121"/>
+      <c r="AL52" s="121"/>
+      <c r="AM52" s="121"/>
+      <c r="AN52" s="121"/>
+      <c r="AO52" s="121"/>
+      <c r="AP52" s="121"/>
+      <c r="AQ52" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="AR52" s="149"/>
-      <c r="AS52" s="149"/>
-      <c r="AT52" s="149"/>
-      <c r="AU52" s="149"/>
-      <c r="AV52" s="149"/>
-      <c r="AW52" s="150"/>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
-      <c r="AZ52" s="118"/>
-      <c r="BA52" s="118"/>
-      <c r="BB52" s="118"/>
-      <c r="BC52" s="118"/>
-      <c r="BD52" s="118"/>
-      <c r="BE52" s="151"/>
-      <c r="BF52" s="118"/>
-      <c r="BG52" s="118"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
-      <c r="BJ52" s="118"/>
-      <c r="BK52" s="118"/>
-      <c r="BL52" s="152"/>
+      <c r="AR52" s="162"/>
+      <c r="AS52" s="162"/>
+      <c r="AT52" s="162"/>
+      <c r="AU52" s="162"/>
+      <c r="AV52" s="162"/>
+      <c r="AW52" s="163"/>
+      <c r="AX52" s="125"/>
+      <c r="AY52" s="125"/>
+      <c r="AZ52" s="125"/>
+      <c r="BA52" s="125"/>
+      <c r="BB52" s="125"/>
+      <c r="BC52" s="125"/>
+      <c r="BD52" s="125"/>
+      <c r="BE52" s="164"/>
+      <c r="BF52" s="125"/>
+      <c r="BG52" s="125"/>
+      <c r="BH52" s="125"/>
+      <c r="BI52" s="125"/>
+      <c r="BJ52" s="125"/>
+      <c r="BK52" s="125"/>
+      <c r="BL52" s="165"/>
       <c r="BM52" s="2"/>
       <c r="BN52" s="2"/>
       <c r="BO52" s="2"/>
     </row>
     <row r="53" ht="26.25" customHeight="1">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="129"/>
-      <c r="T53" s="129"/>
-      <c r="U53" s="129"/>
-      <c r="V53" s="129"/>
-      <c r="W53" s="129"/>
-      <c r="X53" s="129"/>
-      <c r="Y53" s="129"/>
-      <c r="Z53" s="129"/>
-      <c r="AA53" s="129"/>
-      <c r="AB53" s="130"/>
-      <c r="AC53" s="131"/>
-      <c r="AD53" s="132"/>
-      <c r="AE53" s="132"/>
-      <c r="AF53" s="132"/>
-      <c r="AG53" s="132"/>
-      <c r="AH53" s="132"/>
-      <c r="AI53" s="133"/>
-      <c r="AJ53" s="134"/>
-      <c r="AK53" s="134"/>
-      <c r="AL53" s="134"/>
-      <c r="AM53" s="134"/>
-      <c r="AN53" s="134"/>
-      <c r="AO53" s="134"/>
-      <c r="AP53" s="134"/>
-      <c r="AQ53" s="135" t="s">
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="134"/>
+      <c r="P53" s="134"/>
+      <c r="Q53" s="136"/>
+      <c r="R53" s="166"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="138"/>
+      <c r="X53" s="139"/>
+      <c r="Y53" s="138"/>
+      <c r="Z53" s="138"/>
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="140"/>
+      <c r="AC53" s="141"/>
+      <c r="AD53" s="142"/>
+      <c r="AE53" s="142"/>
+      <c r="AF53" s="143"/>
+      <c r="AG53" s="142"/>
+      <c r="AH53" s="142"/>
+      <c r="AI53" s="144"/>
+      <c r="AJ53" s="145"/>
+      <c r="AK53" s="145"/>
+      <c r="AL53" s="145"/>
+      <c r="AM53" s="145"/>
+      <c r="AN53" s="145"/>
+      <c r="AO53" s="145"/>
+      <c r="AP53" s="145"/>
+      <c r="AQ53" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="AR53" s="136"/>
-      <c r="AS53" s="136"/>
-      <c r="AT53" s="136"/>
-      <c r="AU53" s="136"/>
-      <c r="AV53" s="136"/>
-      <c r="AW53" s="137"/>
-      <c r="AX53" s="138"/>
-      <c r="AY53" s="138"/>
-      <c r="AZ53" s="138"/>
-      <c r="BA53" s="138"/>
-      <c r="BB53" s="138"/>
-      <c r="BC53" s="138"/>
-      <c r="BD53" s="138"/>
-      <c r="BE53" s="139"/>
-      <c r="BF53" s="138"/>
-      <c r="BG53" s="138"/>
-      <c r="BH53" s="138"/>
-      <c r="BI53" s="138"/>
-      <c r="BJ53" s="138"/>
-      <c r="BK53" s="138"/>
-      <c r="BL53" s="140"/>
+      <c r="AR53" s="147"/>
+      <c r="AS53" s="147"/>
+      <c r="AT53" s="147"/>
+      <c r="AU53" s="147"/>
+      <c r="AV53" s="147"/>
+      <c r="AW53" s="148"/>
+      <c r="AX53" s="149"/>
+      <c r="AY53" s="149"/>
+      <c r="AZ53" s="149"/>
+      <c r="BA53" s="149"/>
+      <c r="BB53" s="149"/>
+      <c r="BC53" s="149"/>
+      <c r="BD53" s="149"/>
+      <c r="BE53" s="150"/>
+      <c r="BF53" s="149"/>
+      <c r="BG53" s="149"/>
+      <c r="BH53" s="149"/>
+      <c r="BI53" s="149"/>
+      <c r="BJ53" s="149"/>
+      <c r="BK53" s="149"/>
+      <c r="BL53" s="151"/>
       <c r="BM53" s="2"/>
       <c r="BN53" s="2"/>
       <c r="BO53" s="2"/>
     </row>
     <row r="54" ht="26.25" customHeight="1">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="127"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="129"/>
-      <c r="T54" s="129"/>
-      <c r="U54" s="129"/>
-      <c r="V54" s="129"/>
-      <c r="W54" s="129"/>
-      <c r="X54" s="129"/>
-      <c r="Y54" s="129"/>
-      <c r="Z54" s="129"/>
-      <c r="AA54" s="129"/>
-      <c r="AB54" s="130"/>
-      <c r="AC54" s="131"/>
-      <c r="AD54" s="132"/>
-      <c r="AE54" s="132"/>
-      <c r="AF54" s="132"/>
-      <c r="AG54" s="132"/>
-      <c r="AH54" s="132"/>
-      <c r="AI54" s="133"/>
-      <c r="AJ54" s="134"/>
-      <c r="AK54" s="134"/>
-      <c r="AL54" s="134"/>
-      <c r="AM54" s="134"/>
-      <c r="AN54" s="134"/>
-      <c r="AO54" s="134"/>
-      <c r="AP54" s="134"/>
-      <c r="AQ54" s="135" t="s">
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="135"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="136"/>
+      <c r="R54" s="166"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="138"/>
+      <c r="W54" s="138"/>
+      <c r="X54" s="139"/>
+      <c r="Y54" s="138"/>
+      <c r="Z54" s="138"/>
+      <c r="AA54" s="138"/>
+      <c r="AB54" s="140"/>
+      <c r="AC54" s="141"/>
+      <c r="AD54" s="142"/>
+      <c r="AE54" s="142"/>
+      <c r="AF54" s="143"/>
+      <c r="AG54" s="142"/>
+      <c r="AH54" s="142"/>
+      <c r="AI54" s="144"/>
+      <c r="AJ54" s="145"/>
+      <c r="AK54" s="145"/>
+      <c r="AL54" s="145"/>
+      <c r="AM54" s="145"/>
+      <c r="AN54" s="145"/>
+      <c r="AO54" s="145"/>
+      <c r="AP54" s="145"/>
+      <c r="AQ54" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="AR54" s="136"/>
-      <c r="AS54" s="136"/>
-      <c r="AT54" s="136"/>
-      <c r="AU54" s="136"/>
-      <c r="AV54" s="136"/>
-      <c r="AW54" s="137"/>
-      <c r="AX54" s="138"/>
-      <c r="AY54" s="138"/>
-      <c r="AZ54" s="138"/>
-      <c r="BA54" s="138"/>
-      <c r="BB54" s="138"/>
-      <c r="BC54" s="138"/>
-      <c r="BD54" s="138"/>
-      <c r="BE54" s="139"/>
-      <c r="BF54" s="138"/>
-      <c r="BG54" s="138"/>
-      <c r="BH54" s="138"/>
-      <c r="BI54" s="138"/>
-      <c r="BJ54" s="138"/>
-      <c r="BK54" s="138"/>
-      <c r="BL54" s="140"/>
+      <c r="AR54" s="147"/>
+      <c r="AS54" s="147"/>
+      <c r="AT54" s="147"/>
+      <c r="AU54" s="147"/>
+      <c r="AV54" s="147"/>
+      <c r="AW54" s="148"/>
+      <c r="AX54" s="149"/>
+      <c r="AY54" s="149"/>
+      <c r="AZ54" s="149"/>
+      <c r="BA54" s="149"/>
+      <c r="BB54" s="149"/>
+      <c r="BC54" s="149"/>
+      <c r="BD54" s="149"/>
+      <c r="BE54" s="150"/>
+      <c r="BF54" s="149"/>
+      <c r="BG54" s="149"/>
+      <c r="BH54" s="149"/>
+      <c r="BI54" s="149"/>
+      <c r="BJ54" s="149"/>
+      <c r="BK54" s="149"/>
+      <c r="BL54" s="151"/>
       <c r="BM54" s="2"/>
       <c r="BN54" s="2"/>
       <c r="BO54" s="2"/>
@@ -5038,54 +5088,54 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="153"/>
-      <c r="O55" s="153"/>
-      <c r="P55" s="153"/>
-      <c r="Q55" s="153"/>
-      <c r="R55" s="154" t="s">
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="167"/>
+      <c r="Q55" s="167"/>
+      <c r="R55" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="S55" s="154"/>
-      <c r="T55" s="154"/>
-      <c r="U55" s="155"/>
-      <c r="V55" s="156"/>
-      <c r="W55" s="156"/>
-      <c r="X55" s="156"/>
-      <c r="Y55" s="156"/>
-      <c r="Z55" s="156"/>
-      <c r="AA55" s="156"/>
-      <c r="AB55" s="157"/>
-      <c r="AC55" s="158"/>
-      <c r="AD55" s="158"/>
-      <c r="AE55" s="158"/>
-      <c r="AF55" s="158"/>
-      <c r="AG55" s="158"/>
-      <c r="AH55" s="158"/>
-      <c r="AI55" s="159"/>
-      <c r="AJ55" s="160"/>
-      <c r="AK55" s="158"/>
-      <c r="AL55" s="158"/>
-      <c r="AM55" s="158"/>
-      <c r="AN55" s="158"/>
-      <c r="AO55" s="158"/>
-      <c r="AP55" s="159"/>
-      <c r="AQ55" s="153"/>
-      <c r="AR55" s="153"/>
-      <c r="AS55" s="153"/>
-      <c r="AT55" s="153"/>
-      <c r="AU55" s="153"/>
-      <c r="AV55" s="153"/>
-      <c r="AW55" s="153"/>
+      <c r="S55" s="168"/>
+      <c r="T55" s="168"/>
+      <c r="U55" s="169"/>
+      <c r="V55" s="170"/>
+      <c r="W55" s="170"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="170"/>
+      <c r="Z55" s="170"/>
+      <c r="AA55" s="170"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="173"/>
+      <c r="AD55" s="173"/>
+      <c r="AE55" s="173"/>
+      <c r="AF55" s="174"/>
+      <c r="AG55" s="173"/>
+      <c r="AH55" s="173"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="176"/>
+      <c r="AK55" s="173"/>
+      <c r="AL55" s="173"/>
+      <c r="AM55" s="173"/>
+      <c r="AN55" s="173"/>
+      <c r="AO55" s="173"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="167"/>
+      <c r="AR55" s="167"/>
+      <c r="AS55" s="167"/>
+      <c r="AT55" s="167"/>
+      <c r="AU55" s="167"/>
+      <c r="AV55" s="167"/>
+      <c r="AW55" s="167"/>
       <c r="AX55" s="2"/>
       <c r="AY55" s="2"/>
       <c r="AZ55" s="2"/>
@@ -5093,14 +5143,14 @@
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
       <c r="BD55" s="2"/>
-      <c r="BE55" s="161"/>
-      <c r="BF55" s="162"/>
-      <c r="BG55" s="162"/>
-      <c r="BH55" s="162"/>
-      <c r="BI55" s="162"/>
-      <c r="BJ55" s="162"/>
-      <c r="BK55" s="162"/>
-      <c r="BL55" s="163"/>
+      <c r="BE55" s="177"/>
+      <c r="BF55" s="178"/>
+      <c r="BG55" s="178"/>
+      <c r="BH55" s="178"/>
+      <c r="BI55" s="178"/>
+      <c r="BJ55" s="178"/>
+      <c r="BK55" s="178"/>
+      <c r="BL55" s="179"/>
       <c r="BM55" s="2"/>
       <c r="BN55" s="2"/>
       <c r="BO55" s="2"/>
@@ -5244,19 +5294,19 @@
       <c r="BO57" s="2"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
-      <c r="A58" s="164" t="s">
+      <c r="A58" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="165"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
+      <c r="E58" s="181"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="181"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="181"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="181"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
       <c r="N58" s="21"/>
@@ -5272,8 +5322,8 @@
       <c r="X58" s="21"/>
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
-      <c r="AA58" s="165"/>
-      <c r="AB58" s="153"/>
+      <c r="AA58" s="181"/>
+      <c r="AB58" s="167"/>
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
@@ -5298,9 +5348,9 @@
       <c r="AX58" s="21"/>
       <c r="AY58" s="21"/>
       <c r="AZ58" s="21"/>
-      <c r="BA58" s="153"/>
-      <c r="BB58" s="153"/>
-      <c r="BC58" s="153"/>
+      <c r="BA58" s="167"/>
+      <c r="BB58" s="167"/>
+      <c r="BC58" s="167"/>
       <c r="BD58" s="2"/>
       <c r="BE58" s="2"/>
       <c r="BF58" s="2"/>
@@ -5315,65 +5365,65 @@
       <c r="BO58" s="2"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
+      <c r="A59" s="182"/>
+      <c r="B59" s="182"/>
+      <c r="C59" s="182"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="182"/>
+      <c r="F59" s="182"/>
+      <c r="G59" s="182"/>
+      <c r="H59" s="182"/>
+      <c r="I59" s="182"/>
+      <c r="J59" s="182"/>
+      <c r="K59" s="182"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="167"/>
-      <c r="N59" s="167"/>
-      <c r="O59" s="167"/>
-      <c r="P59" s="167"/>
-      <c r="Q59" s="167"/>
-      <c r="R59" s="167" t="s">
+      <c r="M59" s="183"/>
+      <c r="N59" s="183"/>
+      <c r="O59" s="183"/>
+      <c r="P59" s="183"/>
+      <c r="Q59" s="183"/>
+      <c r="R59" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="S59" s="167"/>
-      <c r="T59" s="167"/>
-      <c r="U59" s="167"/>
-      <c r="V59" s="167"/>
-      <c r="W59" s="167"/>
-      <c r="X59" s="167"/>
-      <c r="Y59" s="167"/>
-      <c r="Z59" s="167"/>
-      <c r="AA59" s="166"/>
+      <c r="S59" s="183"/>
+      <c r="T59" s="183"/>
+      <c r="U59" s="183"/>
+      <c r="V59" s="183"/>
+      <c r="W59" s="183"/>
+      <c r="X59" s="183"/>
+      <c r="Y59" s="183"/>
+      <c r="Z59" s="183"/>
+      <c r="AA59" s="182"/>
       <c r="AB59" s="2"/>
-      <c r="AC59" s="167"/>
-      <c r="AD59" s="167"/>
-      <c r="AE59" s="167"/>
-      <c r="AF59" s="167"/>
-      <c r="AG59" s="167"/>
-      <c r="AH59" s="167"/>
-      <c r="AI59" s="167"/>
-      <c r="AJ59" s="167"/>
-      <c r="AK59" s="167"/>
-      <c r="AL59" s="167"/>
-      <c r="AM59" s="167" t="s">
+      <c r="AC59" s="183"/>
+      <c r="AD59" s="183"/>
+      <c r="AE59" s="183"/>
+      <c r="AF59" s="183"/>
+      <c r="AG59" s="183"/>
+      <c r="AH59" s="183"/>
+      <c r="AI59" s="183"/>
+      <c r="AJ59" s="183"/>
+      <c r="AK59" s="183"/>
+      <c r="AL59" s="183"/>
+      <c r="AM59" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AN59" s="167"/>
-      <c r="AO59" s="167"/>
-      <c r="AP59" s="167"/>
-      <c r="AQ59" s="167"/>
-      <c r="AR59" s="167"/>
-      <c r="AS59" s="167"/>
-      <c r="AT59" s="167"/>
-      <c r="AU59" s="167"/>
-      <c r="AV59" s="167"/>
-      <c r="AW59" s="167"/>
-      <c r="AX59" s="167"/>
-      <c r="AY59" s="167"/>
-      <c r="AZ59" s="167"/>
-      <c r="BA59" s="166"/>
-      <c r="BB59" s="166"/>
-      <c r="BC59" s="166"/>
+      <c r="AN59" s="183"/>
+      <c r="AO59" s="183"/>
+      <c r="AP59" s="183"/>
+      <c r="AQ59" s="183"/>
+      <c r="AR59" s="183"/>
+      <c r="AS59" s="183"/>
+      <c r="AT59" s="183"/>
+      <c r="AU59" s="183"/>
+      <c r="AV59" s="183"/>
+      <c r="AW59" s="183"/>
+      <c r="AX59" s="183"/>
+      <c r="AY59" s="183"/>
+      <c r="AZ59" s="183"/>
+      <c r="BA59" s="182"/>
+      <c r="BB59" s="182"/>
+      <c r="BC59" s="182"/>
       <c r="BD59" s="16"/>
       <c r="BE59" s="16"/>
       <c r="BF59" s="16"/>
@@ -5429,19 +5479,19 @@
       <c r="A62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
       <c r="BA62" s="2"/>
       <c r="BB62" s="2"/>
       <c r="BC62" s="2"/>
@@ -5459,17 +5509,17 @@
       <c r="BO62" s="2"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
       <c r="L63" s="52"/>
       <c r="M63" s="52"/>
       <c r="N63" s="52"/>
@@ -5544,47 +5594,47 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="168"/>
-      <c r="Q64" s="168"/>
-      <c r="R64" s="168" t="s">
+      <c r="P64" s="184"/>
+      <c r="Q64" s="184"/>
+      <c r="R64" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="S64" s="168"/>
-      <c r="T64" s="168"/>
-      <c r="U64" s="168"/>
-      <c r="V64" s="168"/>
-      <c r="W64" s="168"/>
-      <c r="X64" s="168"/>
-      <c r="Y64" s="168"/>
-      <c r="Z64" s="168"/>
+      <c r="S64" s="184"/>
+      <c r="T64" s="184"/>
+      <c r="U64" s="184"/>
+      <c r="V64" s="184"/>
+      <c r="W64" s="184"/>
+      <c r="X64" s="184"/>
+      <c r="Y64" s="184"/>
+      <c r="Z64" s="184"/>
       <c r="AA64" s="16"/>
       <c r="AB64" s="2"/>
-      <c r="AC64" s="168"/>
-      <c r="AD64" s="168"/>
-      <c r="AE64" s="168"/>
-      <c r="AF64" s="168"/>
-      <c r="AG64" s="168"/>
-      <c r="AH64" s="168"/>
-      <c r="AI64" s="168"/>
-      <c r="AJ64" s="168"/>
+      <c r="AC64" s="184"/>
+      <c r="AD64" s="184"/>
+      <c r="AE64" s="184"/>
+      <c r="AF64" s="184"/>
+      <c r="AG64" s="184"/>
+      <c r="AH64" s="184"/>
+      <c r="AI64" s="184"/>
+      <c r="AJ64" s="184"/>
       <c r="AK64" s="2"/>
-      <c r="AL64" s="168"/>
-      <c r="AM64" s="168" t="s">
+      <c r="AL64" s="184"/>
+      <c r="AM64" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="AN64" s="168"/>
-      <c r="AO64" s="168"/>
-      <c r="AP64" s="168"/>
-      <c r="AQ64" s="168"/>
-      <c r="AR64" s="168"/>
-      <c r="AS64" s="168"/>
-      <c r="AT64" s="168"/>
-      <c r="AU64" s="168"/>
-      <c r="AV64" s="168"/>
-      <c r="AW64" s="168"/>
-      <c r="AX64" s="168"/>
-      <c r="AY64" s="168"/>
-      <c r="AZ64" s="168"/>
+      <c r="AN64" s="184"/>
+      <c r="AO64" s="184"/>
+      <c r="AP64" s="184"/>
+      <c r="AQ64" s="184"/>
+      <c r="AR64" s="184"/>
+      <c r="AS64" s="184"/>
+      <c r="AT64" s="184"/>
+      <c r="AU64" s="184"/>
+      <c r="AV64" s="184"/>
+      <c r="AW64" s="184"/>
+      <c r="AX64" s="184"/>
+      <c r="AY64" s="184"/>
+      <c r="AZ64" s="184"/>
       <c r="BA64" s="2"/>
       <c r="BB64" s="2"/>
       <c r="BC64" s="2"/>
